--- a/Java23 NguyenVanThien Database Design.xlsx
+++ b/Java23 NguyenVanThien Database Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java23\3.DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67AA62-DF59-4F71-9F0B-79D2416A6A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0F2A9-D2FF-407B-8E91-141877CF141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="588" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1.Mô hình quan niệm" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="278">
   <si>
     <t>MatHang</t>
   </si>
@@ -943,12 +943,54 @@
   <si>
     <t>Link:https://drive.google.com/file/d/12k52sJpo4plRhcsu-_CerG94Newpxg8p/view?usp=sharing</t>
   </si>
+  <si>
+    <t>KichCo(s)</t>
+  </si>
+  <si>
+    <t>ChatLieu(s)</t>
+  </si>
+  <si>
+    <t>MauSac(s)</t>
+  </si>
+  <si>
+    <t>HinhAnh(s)</t>
+  </si>
+  <si>
+    <t>PhieuNhapHang</t>
+  </si>
+  <si>
+    <t>ChiTietNhapHang</t>
+  </si>
+  <si>
+    <t>NhaCungCap</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>PhiGiaoHang</t>
+  </si>
+  <si>
+    <t>TenTK</t>
+  </si>
+  <si>
+    <t>TenCV</t>
+  </si>
+  <si>
+    <t>TenNhaCC</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>MaSoThue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,8 +1080,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1160,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1359,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1314,10 +1383,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,7 +1774,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="53" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1731,7 +1801,7 @@
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="54" t="s">
         <v>256</v>
       </c>
     </row>
@@ -1763,7 +1833,7 @@
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="54" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2037,18 +2107,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC07F22-DCAA-414F-968C-4003B4FD78FC}">
-  <dimension ref="B4:K33"/>
+  <dimension ref="B4:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
@@ -2056,219 +2126,288 @@
     <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="19" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" customWidth="1"/>
+    <col min="16" max="19" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>245</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>242</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>243</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2280,21 +2419,29 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2304,8 +2451,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2315,8 +2463,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2326,8 +2475,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2337,8 +2487,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2348,8 +2499,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2359,8 +2511,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2370,28 +2523,29 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="24" spans="2:10" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>72</v>
       </c>
@@ -2400,7 +2554,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +2566,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>74</v>
       </c>
@@ -2432,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:H33"/>
     </sheetView>
   </sheetViews>
@@ -2667,12 +2821,12 @@
       <c r="Q13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
@@ -2685,10 +2839,10 @@
       <c r="Q14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
@@ -2991,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AJ77"/>
   <sheetViews>
-    <sheetView topLeftCell="S34" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3268,10 +3422,10 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="58"/>
+      <c r="Q19" s="60"/>
       <c r="T19" s="4" t="s">
         <v>9</v>
       </c>
@@ -3289,10 +3443,10 @@
       <c r="P20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="57" t="s">
+      <c r="Q20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R20" s="57"/>
+      <c r="R20" s="59"/>
       <c r="T20" s="4" t="s">
         <v>94</v>
       </c>
@@ -3310,10 +3464,10 @@
       <c r="P21" s="4">
         <v>1</v>
       </c>
-      <c r="Q21" s="57" t="s">
+      <c r="Q21" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="R21" s="57"/>
+      <c r="R21" s="59"/>
       <c r="T21" s="4" t="s">
         <v>94</v>
       </c>
@@ -3331,10 +3485,10 @@
       <c r="P22" s="4">
         <v>2</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q22" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="57"/>
+      <c r="R22" s="59"/>
       <c r="T22" s="4" t="s">
         <v>94</v>
       </c>
@@ -3352,10 +3506,10 @@
       <c r="P23" s="4">
         <v>3</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="57"/>
+      <c r="R23" s="59"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -3374,10 +3528,10 @@
       <c r="P24" s="4">
         <v>4</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="R24" s="57"/>
+      <c r="R24" s="59"/>
       <c r="T24" s="4" t="s">
         <v>95</v>
       </c>
@@ -4022,16 +4176,16 @@
       </c>
     </row>
     <row r="48" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
       <c r="O48" s="28">
         <v>3</v>
       </c>
@@ -4061,16 +4215,16 @@
       </c>
     </row>
     <row r="49" spans="3:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
       <c r="O49" s="28">
         <v>4</v>
       </c>
